--- a/data/trans_camb/P23_R2-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P23_R2-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.733243392718492</v>
+        <v>-1.640182276256211</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.074965725512577</v>
+        <v>-2.025417620964504</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.724155922700726</v>
+        <v>-9.371776932795688</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.310708348185019</v>
+        <v>4.035100999395567</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.796795786128478</v>
+        <v>5.061816047257612</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-3.291048567345634</v>
+        <v>-3.770408824040503</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>4.584888993813174</v>
+        <v>4.64139652083682</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>4.530257036012695</v>
+        <v>4.545015082534784</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.517263886324579</v>
+        <v>-3.342536992786225</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.84399137759724</v>
+        <v>9.103344894468176</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.670457147100543</v>
+        <v>7.818302962442495</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.329705714421598</v>
+        <v>3.546379448967572</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.32371846675813</v>
+        <v>12.1967404133172</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>12.78612022348405</v>
+        <v>12.46953910663044</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.576552950324198</v>
+        <v>4.790749729377887</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.03642303962583</v>
+        <v>11.00752920615228</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>10.69803452260891</v>
+        <v>10.65934913432875</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.948282796960492</v>
+        <v>3.868729754809023</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.03909487340018306</v>
+        <v>-0.03864314158698495</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.04739783918768028</v>
+        <v>-0.04743411991210852</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.206341851479167</v>
+        <v>-0.2151687063619307</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1644793525585893</v>
+        <v>0.1603251872677427</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1920538211517867</v>
+        <v>0.1980178495776107</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.134269936306652</v>
+        <v>-0.149595261506095</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1449895619352863</v>
+        <v>0.1485982187056632</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1384538114433478</v>
+        <v>0.1447529271682968</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1131108994679443</v>
+        <v>-0.1074345407896912</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2406747014965241</v>
+        <v>0.2397030447575772</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2044901386844509</v>
+        <v>0.2060635184579713</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.08530465790902141</v>
+        <v>0.09827731318808708</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.60205818911348</v>
+        <v>0.5902740710050779</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6048061531575053</v>
+        <v>0.6044939974295894</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2172892483019821</v>
+        <v>0.23259064357288</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3954233560054667</v>
+        <v>0.3990521030623014</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3742642734842054</v>
+        <v>0.3844252667905156</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.1413131055905164</v>
+        <v>0.137286435480941</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.6582612346344274</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-5.762661588273565</v>
+        <v>-5.762661588273563</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-2.479653299992479</v>
@@ -878,7 +878,7 @@
         <v>-3.88211474679176</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-11.85002753853003</v>
+        <v>-11.85002753853004</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.51512828626932</v>
+        <v>-9.429772440794357</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-12.24720352985559</v>
+        <v>-12.42001153285388</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-21.73106639629835</v>
+        <v>-21.486590014125</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.518562795268175</v>
+        <v>-2.890261308117249</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.131390261595888</v>
+        <v>-3.002361174050874</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-9.038914189055184</v>
+        <v>-9.310012223865218</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-5.452559214339042</v>
+        <v>-5.400147816468592</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-7.032561584979001</v>
+        <v>-6.746431696696106</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-14.47774365711783</v>
+        <v>-14.43354210319554</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.3720007911150611</v>
+        <v>-0.6792727025826603</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.166221850954706</v>
+        <v>-3.497479414176104</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-12.96651223669528</v>
+        <v>-12.53967633288443</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.013206753462139</v>
+        <v>4.519315981189856</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.177422307675295</v>
+        <v>4.715869864619348</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-2.284063233504392</v>
+        <v>-2.199464561658003</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6379831584309598</v>
+        <v>0.1138963699591393</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.9319914794850177</v>
+        <v>-0.9550829902335232</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-9.153629035944947</v>
+        <v>-9.017117725732207</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.02587396177052679</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2265102026162597</v>
+        <v>-0.2265102026162596</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.07171676254854098</v>
@@ -983,7 +983,7 @@
         <v>-0.1122788824884101</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.3427275946911641</v>
+        <v>-0.3427275946911642</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2070699237710399</v>
+        <v>-0.209915536049463</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.264749081580774</v>
+        <v>-0.2708320803663799</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4803291775409446</v>
+        <v>-0.4777952259521143</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.0939375941617803</v>
+        <v>-0.1065360376017287</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1124773472895863</v>
+        <v>-0.1129714366080687</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3313147904990831</v>
+        <v>-0.3359728667563538</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1506669506192376</v>
+        <v>-0.1510952701302425</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1963218483731421</v>
+        <v>-0.1887962176450247</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.4026812964908301</v>
+        <v>-0.4050961039211883</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.009141025160516143</v>
+        <v>-0.01572590524233217</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.0774055872602256</v>
+        <v>-0.08424272517360822</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.3101803451347785</v>
+        <v>-0.3033866399035386</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2063264141029142</v>
+        <v>0.1878091921189288</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1712219883309556</v>
+        <v>0.1991131278675682</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.0944305060236546</v>
+        <v>-0.08872256494268316</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01910369681656365</v>
+        <v>0.003124104414696867</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.02914164585561986</v>
+        <v>-0.02890570218951814</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.2736734669850842</v>
+        <v>-0.2710571862955587</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-2.649793808641143</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-6.747483716771743</v>
+        <v>-6.747483716771738</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>-3.908782807546135</v>
@@ -1092,7 +1092,7 @@
         <v>-7.244906523844283</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-11.20708259758974</v>
+        <v>-11.20708259758973</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.69760653711121</v>
+        <v>-11.74323529510424</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-15.36088225785533</v>
+        <v>-15.63276946978468</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-18.71562254942577</v>
+        <v>-19.14933000948189</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.020551973550203</v>
+        <v>-3.431510569686618</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.659860812031214</v>
+        <v>-6.66623975469182</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-10.21192388141413</v>
+        <v>-10.36329782313757</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-6.864309970787728</v>
+        <v>-6.825722802974313</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-10.00196675111106</v>
+        <v>-10.16812948524035</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-13.76449162378824</v>
+        <v>-13.84690235045128</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-2.984178628205905</v>
+        <v>-3.425033142517998</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-6.952528217795037</v>
+        <v>-6.760762871170909</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-10.59677475467261</v>
+        <v>-10.87962803851387</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.987637818573862</v>
+        <v>4.55537856260093</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9999479698047585</v>
+        <v>1.429277305932162</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-3.689418788394641</v>
+        <v>-3.581595081478365</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.7906220172814828</v>
+        <v>-0.8231246090515539</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-4.032611312864688</v>
+        <v>-4.166912902641582</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-8.563406707556849</v>
+        <v>-8.633674288970301</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.1104395736913531</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>-0.2812253627959692</v>
+        <v>-0.2812253627959689</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>-0.1236972865756053</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2913549824806209</v>
+        <v>-0.2896748863845288</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3840357034321182</v>
+        <v>-0.3896515295251439</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4659294535072078</v>
+        <v>-0.4754523965676874</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1164683309344227</v>
+        <v>-0.1347243032343546</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2570864412638375</v>
+        <v>-0.2580264656561307</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.388236156007591</v>
+        <v>-0.3986500028941043</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.2074281080425054</v>
+        <v>-0.2059949401391291</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3053621836207367</v>
+        <v>-0.3085447231657735</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.4187188441307146</v>
+        <v>-0.4227946717578493</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.07792106407774016</v>
+        <v>-0.09117036655478201</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.1889446586936331</v>
+        <v>-0.1861052105712344</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.2900063292455492</v>
+        <v>-0.2989600547009761</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2231308800015314</v>
+        <v>0.210425451967915</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.04543136963735453</v>
+        <v>0.06631257269817828</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1642398356067823</v>
+        <v>-0.1625695092561851</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.02466315185567736</v>
+        <v>-0.02720956039897302</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.1318184389764422</v>
+        <v>-0.1344961948301448</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.2814501333108729</v>
+        <v>-0.2839998231616745</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-10.04191421237877</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-12.76667451342911</v>
+        <v>-12.7666745134291</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-12.58041064384399</v>
+        <v>-12.49021190393335</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-15.85226970393636</v>
+        <v>-15.70230356974404</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-18.95330174323861</v>
+        <v>-19.72765918464416</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-11.94268426829193</v>
+        <v>-11.59747097487647</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-15.46155119701906</v>
+        <v>-15.59131832748789</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-16.58965579496621</v>
+        <v>-16.82793877090334</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-10.92891603759885</v>
+        <v>-10.74340951727961</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-14.38627963322039</v>
+        <v>-14.25559417617318</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-16.84900111008067</v>
+        <v>-16.56150397595363</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3662582234610091</v>
+        <v>-0.02883298487702649</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-3.573556949860021</v>
+        <v>-3.493871021649325</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-7.787147209082518</v>
+        <v>-8.873461811030243</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5360001676106453</v>
+        <v>1.262227087601924</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-3.787743325187659</v>
+        <v>-3.893179024143783</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-6.022437972972341</v>
+        <v>-6.032280446740192</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-1.677396051901643</v>
+        <v>-1.977452820285865</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-5.819092905071595</v>
+        <v>-5.616459571724619</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-8.914215349559324</v>
+        <v>-8.792193868552891</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.2787972266368813</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.3988601690251438</v>
+        <v>-0.3988601690251439</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.194004778849367</v>
@@ -1411,7 +1411,7 @@
         <v>-0.3140787166393363</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.3993004383553772</v>
+        <v>-0.3993004383553771</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3250701893880322</v>
+        <v>-0.3266198232698841</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.411952584671921</v>
+        <v>-0.4091642979637149</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5041970869200416</v>
+        <v>-0.51650442268732</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.3726003957782785</v>
+        <v>-0.3715612623513634</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4854431188186804</v>
+        <v>-0.4887978907358762</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5152521936225288</v>
+        <v>-0.5129226876309717</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3188364444978807</v>
+        <v>-0.303073205975338</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4188056107641452</v>
+        <v>-0.4141758310683739</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.4892324637980667</v>
+        <v>-0.4751713041856674</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.01536375531207126</v>
+        <v>0.00363598554854651</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.112752693207587</v>
+        <v>-0.1110103053634377</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.2584295303566417</v>
+        <v>-0.2769414489112621</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.03502661165807854</v>
+        <v>0.04775829103431832</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1526448057604652</v>
+        <v>-0.156969891125268</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2497194278659203</v>
+        <v>-0.245809939909481</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.06062141076259125</v>
+        <v>-0.06276871427283372</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.1950041845074978</v>
+        <v>-0.1896957214389053</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.3036644859638442</v>
+        <v>-0.3041957747418148</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>1.427313185501214</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-5.547525429845305</v>
+        <v>-5.547525429845298</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-0.3467679933796486</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-5.735463964689119</v>
+        <v>-5.647302585173036</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-7.502553261019658</v>
+        <v>-7.583577800640138</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-16.79338445980534</v>
+        <v>-16.7295852948857</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1694026795504776</v>
+        <v>0.1753621808376689</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.6993847732410262</v>
+        <v>-0.7406478299575904</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-7.515632663373335</v>
+        <v>-7.465810765915086</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.829037830347614</v>
+        <v>-2.04232687604851</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-3.506709194851632</v>
+        <v>-3.600419498652073</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-11.63975356808415</v>
+        <v>-11.45362129972335</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.667368484680994</v>
+        <v>-0.8087648979705632</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-3.074437319473642</v>
+        <v>-2.906109458398724</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-11.94322273520988</v>
+        <v>-11.82847260277401</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.617233056825983</v>
+        <v>4.5616789192185</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.437599272912856</v>
+        <v>3.51441452284299</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-3.637174970331307</v>
+        <v>-3.558205592767682</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.371977867701529</v>
+        <v>1.225997754989061</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.2830349637381377</v>
+        <v>-0.2537223483046401</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-8.563017105533705</v>
+        <v>-8.485447764061542</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.132795762904887</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.3600663845124908</v>
+        <v>-0.3600663845124906</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.09883391184559041</v>
@@ -1616,7 +1616,7 @@
         <v>0.05804856050902289</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.2256168224751851</v>
+        <v>-0.2256168224751849</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.01077249472325218</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1376006258416945</v>
+        <v>-0.1380972320194973</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1828453135563341</v>
+        <v>-0.186804616439552</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.4086604836955803</v>
+        <v>-0.4075203435725367</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.006622364888909057</v>
+        <v>0.006971586821315368</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.02724730533727912</v>
+        <v>-0.02802187374363478</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2918803646352335</v>
+        <v>-0.2902250812332192</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.05551139722441623</v>
+        <v>-0.06132295475156835</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1067485018534998</v>
+        <v>-0.1098741571180539</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.3540715957484301</v>
+        <v>-0.3469943180523991</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.01741178606828245</v>
+        <v>-0.02131365718347032</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.07935960519693407</v>
+        <v>-0.07602354167536754</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.3093801670111722</v>
+        <v>-0.3056931558639626</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1931355650374431</v>
+        <v>0.1961856417497005</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.145276268788083</v>
+        <v>0.1479478903049848</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.1548920698919367</v>
+        <v>-0.1518109324167264</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.04418075361674108</v>
+        <v>0.03943922881599833</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.00935519689267386</v>
+        <v>-0.008218753794265189</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.272852999303027</v>
+        <v>-0.2696397726300118</v>
       </c>
     </row>
     <row r="34">
